--- a/template1.xlsx
+++ b/template1.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>totalGroup</t>
   </si>
@@ -102,13 +102,16 @@
   </si>
   <si>
     <t>B4</t>
+  </si>
+  <si>
+    <t>end line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +123,13 @@
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,24 +148,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -166,8 +158,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -227,40 +237,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,68 +648,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="12" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -684,61 +752,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
